--- a/00_Document/03_Testing/02_Frontend/01_テスト仕様書/管理者＿ログイン画面＿テスト仕様書.xlsx
+++ b/00_Document/03_Testing/02_Frontend/01_テスト仕様書/管理者＿ログイン画面＿テスト仕様書.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448D4F30-6D06-4783-9033-E37BC435B40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="737" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020" tabRatio="737" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -14,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">エビデンス!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'基本情報（従業員）'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">基本情報（従業員）!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="AI4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="AI4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="BD4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="BF4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -290,18 +289,6 @@
 staffId or Password is wrong!】</t>
   </si>
   <si>
-    <t>01_001_004</t>
-  </si>
-  <si>
-    <t>01_001_005</t>
-  </si>
-  <si>
-    <t>01_001_006</t>
-  </si>
-  <si>
-    <t>01_001_007</t>
-  </si>
-  <si>
     <t>Phyu</t>
   </si>
   <si>
@@ -355,7 +342,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
@@ -850,6 +837,141 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -858,141 +980,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1040,7 +1027,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A9FDAB5-441A-4067-944B-AA3C60B8FD5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A9FDAB5-441A-4067-944B-AA3C60B8FD5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1089,7 +1076,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08BED27B-83D5-4DAA-AF8B-36223D28764F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08BED27B-83D5-4DAA-AF8B-36223D28764F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1138,7 +1125,7 @@
         <xdr:cNvPr id="6" name="Rounded Rectangular Callout 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A02FFC33-A308-452F-90AD-4750182C890C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A02FFC33-A308-452F-90AD-4750182C890C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1252,7 +1239,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2BADB29-7BCB-4671-8C56-D16C3B257967}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2BADB29-7BCB-4671-8C56-D16C3B257967}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,14 +1562,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -1592,10 +1579,10 @@
       <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.149999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="16.149999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="45" width="2.5703125" style="1" customWidth="1"/>
-    <col min="46" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="45" width="2.54296875" style="1" customWidth="1"/>
+    <col min="46" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="13" spans="9:37" ht="16.149999999999999" customHeight="1">
@@ -1721,7 +1708,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
       <c r="P18" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
@@ -1774,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1786,11 +1773,11 @@
       <selection pane="bottomLeft" activeCell="AX7" sqref="AX7:AZ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.149999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="16.149999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="49" width="2.85546875" style="1" customWidth="1"/>
-    <col min="50" max="62" width="2.5703125" style="1" customWidth="1"/>
-    <col min="63" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="49" width="2.81640625" style="1" customWidth="1"/>
+    <col min="50" max="62" width="2.54296875" style="1" customWidth="1"/>
+    <col min="63" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="16.149999999999999" customHeight="1">
@@ -1814,7 +1801,7 @@
       <c r="P1" s="42"/>
       <c r="Q1" s="42"/>
       <c r="R1" s="46" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="S1" s="46"/>
       <c r="T1" s="46"/>
@@ -1849,27 +1836,27 @@
       <c r="AU1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="60">
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="56">
         <v>44943</v>
       </c>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="62"/>
-      <c r="BD1" s="66" t="s">
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="BE1" s="55"/>
-      <c r="BF1" s="56"/>
-      <c r="BG1" s="27" t="s">
+      <c r="BE1" s="21"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="BH1" s="28"/>
-      <c r="BI1" s="28"/>
-      <c r="BJ1" s="29"/>
+      <c r="BH1" s="29"/>
+      <c r="BI1" s="29"/>
+      <c r="BJ1" s="30"/>
     </row>
     <row r="2" spans="1:65" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="43"/>
@@ -1918,347 +1905,347 @@
       <c r="AR2" s="52"/>
       <c r="AS2" s="52"/>
       <c r="AT2" s="53"/>
-      <c r="AU2" s="57"/>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="59"/>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="64"/>
-      <c r="AZ2" s="64"/>
-      <c r="BA2" s="64"/>
-      <c r="BB2" s="64"/>
-      <c r="BC2" s="65"/>
-      <c r="BD2" s="67"/>
-      <c r="BE2" s="58"/>
-      <c r="BF2" s="59"/>
-      <c r="BG2" s="30"/>
-      <c r="BH2" s="31"/>
-      <c r="BI2" s="31"/>
-      <c r="BJ2" s="32"/>
-    </row>
-    <row r="3" spans="1:65" ht="8.1" customHeight="1">
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="24"/>
+      <c r="AW2" s="25"/>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="60"/>
+      <c r="BB2" s="60"/>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="24"/>
+      <c r="BF2" s="25"/>
+      <c r="BG2" s="31"/>
+      <c r="BH2" s="32"/>
+      <c r="BI2" s="32"/>
+      <c r="BJ2" s="33"/>
+    </row>
+    <row r="3" spans="1:65" ht="8.15" customHeight="1">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="36" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="39" t="s">
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39" t="s">
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39" t="s">
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26"/>
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="26"/>
+      <c r="AS4" s="26"/>
+      <c r="AT4" s="26"/>
+      <c r="AU4" s="26"/>
+      <c r="AV4" s="26"/>
+      <c r="AW4" s="26"/>
+      <c r="AX4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AY4" s="39"/>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39" t="s">
+      <c r="AY4" s="26"/>
+      <c r="AZ4" s="26"/>
+      <c r="BA4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="39" t="s">
+      <c r="BB4" s="26"/>
+      <c r="BC4" s="26"/>
+      <c r="BD4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="BE4" s="39"/>
-      <c r="BF4" s="39" t="s">
+      <c r="BE4" s="26"/>
+      <c r="BF4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="BG4" s="39"/>
-      <c r="BH4" s="39"/>
-      <c r="BI4" s="39" t="s">
+      <c r="BG4" s="26"/>
+      <c r="BH4" s="26"/>
+      <c r="BI4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="BJ4" s="39"/>
+      <c r="BJ4" s="26"/>
     </row>
     <row r="5" spans="1:65" ht="72" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="25" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="62"/>
+      <c r="AL5" s="62"/>
+      <c r="AM5" s="62"/>
+      <c r="AN5" s="62"/>
+      <c r="AO5" s="62"/>
+      <c r="AP5" s="62"/>
+      <c r="AQ5" s="62"/>
+      <c r="AR5" s="62"/>
+      <c r="AS5" s="62"/>
+      <c r="AT5" s="62"/>
+      <c r="AU5" s="62"/>
+      <c r="AV5" s="62"/>
+      <c r="AW5" s="62"/>
+      <c r="AX5" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY5" s="63"/>
+      <c r="AZ5" s="63"/>
+      <c r="BA5" s="64">
+        <v>44943</v>
+      </c>
+      <c r="BB5" s="64"/>
+      <c r="BC5" s="64"/>
+      <c r="BD5" s="27"/>
+      <c r="BE5" s="27"/>
+      <c r="BF5" s="27"/>
+      <c r="BG5" s="27"/>
+      <c r="BH5" s="27"/>
+      <c r="BI5" s="64"/>
+      <c r="BJ5" s="64"/>
+      <c r="BM5" s="3"/>
+    </row>
+    <row r="6" spans="1:65" ht="72" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25" t="s">
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="62"/>
+      <c r="AL6" s="62"/>
+      <c r="AM6" s="62"/>
+      <c r="AN6" s="62"/>
+      <c r="AO6" s="62"/>
+      <c r="AP6" s="62"/>
+      <c r="AQ6" s="62"/>
+      <c r="AR6" s="62"/>
+      <c r="AS6" s="62"/>
+      <c r="AT6" s="62"/>
+      <c r="AU6" s="62"/>
+      <c r="AV6" s="62"/>
+      <c r="AW6" s="62"/>
+      <c r="AX6" s="63"/>
+      <c r="AY6" s="63"/>
+      <c r="AZ6" s="63"/>
+      <c r="BA6" s="64">
+        <v>44943</v>
+      </c>
+      <c r="BB6" s="64"/>
+      <c r="BC6" s="64"/>
+      <c r="BD6" s="27"/>
+      <c r="BE6" s="27"/>
+      <c r="BF6" s="27"/>
+      <c r="BG6" s="27"/>
+      <c r="BH6" s="27"/>
+      <c r="BI6" s="64"/>
+      <c r="BJ6" s="64"/>
+      <c r="BM6" s="3"/>
+    </row>
+    <row r="7" spans="1:65" ht="75" customHeight="1">
+      <c r="A7" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25" t="s">
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="25"/>
-      <c r="AL5" s="25"/>
-      <c r="AM5" s="25"/>
-      <c r="AN5" s="25"/>
-      <c r="AO5" s="25"/>
-      <c r="AP5" s="25"/>
-      <c r="AQ5" s="25"/>
-      <c r="AR5" s="25"/>
-      <c r="AS5" s="25"/>
-      <c r="AT5" s="25"/>
-      <c r="AU5" s="25"/>
-      <c r="AV5" s="25"/>
-      <c r="AW5" s="25"/>
-      <c r="AX5" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="AY5" s="26"/>
-      <c r="AZ5" s="26"/>
-      <c r="BA5" s="24">
-        <v>44943</v>
-      </c>
-      <c r="BB5" s="24"/>
-      <c r="BC5" s="24"/>
-      <c r="BD5" s="23"/>
-      <c r="BE5" s="23"/>
-      <c r="BF5" s="23"/>
-      <c r="BG5" s="23"/>
-      <c r="BH5" s="23"/>
-      <c r="BI5" s="24"/>
-      <c r="BJ5" s="24"/>
-      <c r="BM5" s="3"/>
-    </row>
-    <row r="6" spans="1:65" ht="72" customHeight="1">
-      <c r="A6" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25" t="s">
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="62"/>
+      <c r="AC7" s="62"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="62"/>
+      <c r="AG7" s="62"/>
+      <c r="AH7" s="62"/>
+      <c r="AI7" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="25"/>
-      <c r="AR6" s="25"/>
-      <c r="AS6" s="25"/>
-      <c r="AT6" s="25"/>
-      <c r="AU6" s="25"/>
-      <c r="AV6" s="25"/>
-      <c r="AW6" s="25"/>
-      <c r="AX6" s="26"/>
-      <c r="AY6" s="26"/>
-      <c r="AZ6" s="26"/>
-      <c r="BA6" s="24">
-        <v>44943</v>
-      </c>
-      <c r="BB6" s="24"/>
-      <c r="BC6" s="24"/>
-      <c r="BD6" s="23"/>
-      <c r="BE6" s="23"/>
-      <c r="BF6" s="23"/>
-      <c r="BG6" s="23"/>
-      <c r="BH6" s="23"/>
-      <c r="BI6" s="24"/>
-      <c r="BJ6" s="24"/>
-      <c r="BM6" s="3"/>
-    </row>
-    <row r="7" spans="1:65" ht="75" customHeight="1">
-      <c r="A7" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="25"/>
-      <c r="AL7" s="25"/>
-      <c r="AM7" s="25"/>
-      <c r="AN7" s="25"/>
-      <c r="AO7" s="25"/>
-      <c r="AP7" s="25"/>
-      <c r="AQ7" s="25"/>
-      <c r="AR7" s="25"/>
-      <c r="AS7" s="25"/>
-      <c r="AT7" s="25"/>
-      <c r="AU7" s="25"/>
-      <c r="AV7" s="25"/>
-      <c r="AW7" s="25"/>
-      <c r="AX7" s="22"/>
-      <c r="AY7" s="22"/>
-      <c r="AZ7" s="22"/>
-      <c r="BA7" s="21"/>
-      <c r="BB7" s="21"/>
-      <c r="BC7" s="21"/>
-      <c r="BD7" s="20"/>
-      <c r="BE7" s="20"/>
-      <c r="BF7" s="20"/>
-      <c r="BG7" s="20"/>
-      <c r="BH7" s="20"/>
-      <c r="BI7" s="21"/>
-      <c r="BJ7" s="21"/>
+      <c r="AJ7" s="62"/>
+      <c r="AK7" s="62"/>
+      <c r="AL7" s="62"/>
+      <c r="AM7" s="62"/>
+      <c r="AN7" s="62"/>
+      <c r="AO7" s="62"/>
+      <c r="AP7" s="62"/>
+      <c r="AQ7" s="62"/>
+      <c r="AR7" s="62"/>
+      <c r="AS7" s="62"/>
+      <c r="AT7" s="62"/>
+      <c r="AU7" s="62"/>
+      <c r="AV7" s="62"/>
+      <c r="AW7" s="62"/>
+      <c r="AX7" s="67"/>
+      <c r="AY7" s="67"/>
+      <c r="AZ7" s="67"/>
+      <c r="BA7" s="66"/>
+      <c r="BB7" s="66"/>
+      <c r="BC7" s="66"/>
+      <c r="BD7" s="65"/>
+      <c r="BE7" s="65"/>
+      <c r="BF7" s="65"/>
+      <c r="BG7" s="65"/>
+      <c r="BH7" s="65"/>
+      <c r="BI7" s="66"/>
+      <c r="BJ7" s="66"/>
     </row>
     <row r="8" spans="1:65" ht="16.149999999999999" customHeight="1">
       <c r="A8" s="4"/>
@@ -3094,6 +3081,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="BF7:BH7"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="O7:S7"/>
+    <mergeCell ref="T7:AH7"/>
+    <mergeCell ref="AI7:AW7"/>
+    <mergeCell ref="AX7:AZ7"/>
+    <mergeCell ref="BA7:BC7"/>
+    <mergeCell ref="BD7:BE7"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="T6:AH6"/>
+    <mergeCell ref="AI6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="BD6:BE6"/>
+    <mergeCell ref="BF6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="AU1:AW2"/>
+    <mergeCell ref="AX1:BC2"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="T5:AH5"/>
+    <mergeCell ref="AI5:AW5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="BA5:BC5"/>
     <mergeCell ref="BD1:BF2"/>
     <mergeCell ref="BI4:BJ4"/>
     <mergeCell ref="BD5:BE5"/>
@@ -3110,40 +3131,6 @@
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="R1:W2"/>
     <mergeCell ref="X1:AT2"/>
-    <mergeCell ref="AU1:AW2"/>
-    <mergeCell ref="AX1:BC2"/>
-    <mergeCell ref="O5:S5"/>
-    <mergeCell ref="T5:AH5"/>
-    <mergeCell ref="AI5:AW5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="T6:AH6"/>
-    <mergeCell ref="AI6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="BD6:BE6"/>
-    <mergeCell ref="BF6:BH6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="BF7:BH7"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="T7:AH7"/>
-    <mergeCell ref="AI7:AW7"/>
-    <mergeCell ref="AX7:AZ7"/>
-    <mergeCell ref="BA7:BC7"/>
-    <mergeCell ref="BD7:BE7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3156,22 +3143,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD107DEB-1185-49DC-BBCE-820C45DD6FCA}">
-  <dimension ref="A3:BN86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:BN86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E17" sqref="E17:I17"/>
-      <selection pane="bottomLeft" activeCell="N55" sqref="N55"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.149999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="16.149999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="45" width="10.28515625" style="1" customWidth="1"/>
-    <col min="46" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="45" width="10.26953125" style="1" customWidth="1"/>
+    <col min="46" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:66" ht="16.149999999999999" customHeight="1">
+    <row r="3" spans="2:66" ht="16.149999999999999" customHeight="1">
       <c r="B3" s="69" t="s">
         <v>22</v>
       </c>
@@ -3189,7 +3176,7 @@
       <c r="BM3" s="70"/>
       <c r="BN3" s="70"/>
     </row>
-    <row r="4" spans="1:66" ht="16.149999999999999" customHeight="1">
+    <row r="4" spans="2:66" ht="16.149999999999999" customHeight="1">
       <c r="B4" s="69"/>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
@@ -3205,7 +3192,7 @@
       <c r="BM4" s="70"/>
       <c r="BN4" s="70"/>
     </row>
-    <row r="5" spans="1:66" ht="16.149999999999999" customHeight="1">
+    <row r="5" spans="2:66" ht="16.149999999999999" customHeight="1">
       <c r="O5" s="3" t="s">
         <v>28</v>
       </c>
@@ -3222,10 +3209,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="6" spans="1:66" ht="16.149999999999999" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
+    <row r="6" spans="2:66" ht="16.149999999999999" customHeight="1">
       <c r="O6" s="3" t="s">
         <v>28</v>
       </c>
@@ -3236,30 +3220,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="8" spans="1:66" ht="16.149999999999999" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:66" ht="16.149999999999999" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:66" ht="16.149999999999999" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:66" ht="16.149999999999999" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:66" ht="16.149999999999999" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
+    <row r="16" spans="2:66" ht="16.149999999999999" customHeight="1">
       <c r="T16" s="3" t="s">
         <v>32</v>
       </c>
@@ -3467,10 +3428,8 @@
       <c r="G85" s="68"/>
       <c r="H85" s="68"/>
     </row>
-    <row r="86" spans="2:8" ht="16.350000000000001" customHeight="1">
-      <c r="B86" s="6" t="s">
-        <v>27</v>
-      </c>
+    <row r="86" spans="2:8" ht="16.399999999999999" customHeight="1">
+      <c r="B86" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
